--- a/数据整理/stocks/A股/创业板/300999-金龙鱼.xlsx
+++ b/数据整理/stocks/A股/创业板/300999-金龙鱼.xlsx
@@ -451,7 +451,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F30"/>
+  <dimension ref="A1:H30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -472,15 +472,25 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
           <t>股票总仓位</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>仓位占比</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>仓位排名</t>
         </is>
@@ -492,26 +502,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>006424</t>
+          <t>161040</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>嘉合锦程价值精选混合A</t>
+          <t>富国创业板两年定期开放混合</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>90.28</t>
+          <t>33.86</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>6.60</t>
-        </is>
-      </c>
-      <c r="F2" t="n">
-        <v>9</v>
+          <t>63.23</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>7.53</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>2.5497</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="3">
@@ -520,26 +540,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>006425</t>
+          <t>460005</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>嘉合锦程价值精选混合C</t>
+          <t>华泰柏瑞价值增长混合A</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>90.28</t>
+          <t>29.09</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>6.60</t>
-        </is>
-      </c>
-      <c r="F3" t="n">
-        <v>9</v>
+          <t>93.41</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>8.17</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>2.3767</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="4">
@@ -548,25 +578,35 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>460005</t>
+          <t>008528</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>华泰柏瑞价值增长混合A</t>
+          <t>华泰柏瑞质量成长混合</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>93.41</t>
+          <t>14.74</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>8.17</t>
-        </is>
-      </c>
-      <c r="F4" t="n">
+          <t>94.82</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>7.23</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>1.0657</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
         <v>3</v>
       </c>
     </row>
@@ -576,26 +616,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>519150</t>
+          <t>007750</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>新华优选消费混合</t>
+          <t>广发优势增长股票</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>95.26</t>
+          <t>9.61</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>4.10</t>
-        </is>
-      </c>
-      <c r="F5" t="n">
-        <v>7</v>
+          <t>94.37</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>5.19</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.4988</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="6">
@@ -604,25 +654,35 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>010037</t>
+          <t>001069</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>华泰柏瑞价值增长混合C</t>
+          <t>华泰柏瑞消费成长灵活配置混合</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>93.41</t>
+          <t>5.73</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>8.17</t>
-        </is>
-      </c>
-      <c r="F6" t="n">
+          <t>94.68</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>8.48</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.4859</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
         <v>3</v>
       </c>
     </row>
@@ -632,26 +692,36 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>007281</t>
+          <t>519019</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>嘉合消费升级混合</t>
+          <t>大成景阳领先混合</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>87.02</t>
+          <t>9.12</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>5.87</t>
-        </is>
-      </c>
-      <c r="F7" t="n">
-        <v>9</v>
+          <t>92.51</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>4.62</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.4213</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="8">
@@ -660,25 +730,35 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>519019</t>
+          <t>001579</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>大成景阳领先混合</t>
+          <t>国泰大农业股票</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>92.51</t>
+          <t>12.57</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>4.62</t>
-        </is>
-      </c>
-      <c r="F8" t="n">
+          <t>91.27</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>2.91</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.3658</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
         <v>10</v>
       </c>
     </row>
@@ -688,26 +768,36 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>161040</t>
+          <t>003373</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>富国创业板两年定期开放混合</t>
+          <t>大成景禄灵活配置混合A</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>63.23</t>
+          <t>7.33</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>7.53</t>
-        </is>
-      </c>
-      <c r="F9" t="n">
-        <v>3</v>
+          <t>28.93</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>3.15</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.2309</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="10">
@@ -716,26 +806,36 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>090016</t>
+          <t>002383</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>大成消费主题混合</t>
+          <t>大成趋势回报灵活配置混合</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>87.86</t>
+          <t>7.26</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>4.67</t>
-        </is>
-      </c>
-      <c r="F10" t="n">
-        <v>8</v>
+          <t>28.77</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>3.09</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.2243</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="11">
@@ -744,26 +844,36 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>398011</t>
+          <t>001364</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>中海分红增利混合</t>
+          <t>大成景润灵活配置混合</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>91.19</t>
+          <t>5.97</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>3.59</t>
-        </is>
-      </c>
-      <c r="F11" t="n">
-        <v>10</v>
+          <t>27.86</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>3.74</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.2233</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="12">
@@ -772,26 +882,36 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>001069</t>
+          <t>398011</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>华泰柏瑞消费成长灵活配置混合</t>
+          <t>中海分红增利混合</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>94.68</t>
+          <t>5.19</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>8.48</t>
-        </is>
-      </c>
-      <c r="F12" t="n">
-        <v>3</v>
+          <t>91.19</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>3.59</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.1863</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="13">
@@ -800,26 +920,36 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>001364</t>
+          <t>006425</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>大成景润灵活配置混合</t>
+          <t>嘉合锦程价值精选混合C</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>27.86</t>
+          <t>2.75</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>3.74</t>
-        </is>
-      </c>
-      <c r="F13" t="n">
-        <v>1</v>
+          <t>90.28</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>6.60</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.1815</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="14">
@@ -828,26 +958,36 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>001537</t>
+          <t>006424</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>中加改革红利灵活配置混合</t>
+          <t>嘉合锦程价值精选混合A</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>92.15</t>
+          <t>2.00</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>3.91</t>
-        </is>
-      </c>
-      <c r="F14" t="n">
-        <v>8</v>
+          <t>90.28</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>6.60</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.1320</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="15">
@@ -856,26 +996,36 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>001574</t>
+          <t>003374</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>中海混改红利主题精选灵活配置混合</t>
+          <t>大成景禄灵活配置混合C</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>90.87</t>
+          <t>2.79</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>3.57</t>
-        </is>
-      </c>
-      <c r="F15" t="n">
-        <v>10</v>
+          <t>28.93</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>3.15</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0879</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="16">
@@ -884,26 +1034,36 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>009077</t>
+          <t>519150</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>红土创新稳进混合A</t>
+          <t>新华优选消费混合</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>33.47</t>
+          <t>1.89</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>0.89</t>
-        </is>
-      </c>
-      <c r="F16" t="n">
-        <v>9</v>
+          <t>95.26</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>4.10</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0775</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="17">
@@ -912,26 +1072,36 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>009078</t>
+          <t>003147</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>红土创新稳进混合C</t>
+          <t>大成动态量化配置策略混合</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>33.47</t>
+          <t>3.38</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>0.89</t>
-        </is>
-      </c>
-      <c r="F17" t="n">
-        <v>9</v>
+          <t>27.92</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>2.25</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0760</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="18">
@@ -940,26 +1110,36 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>001579</t>
+          <t>007141</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>国泰大农业股票</t>
+          <t>嘉合稳健增长灵活配置混合A</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>91.27</t>
+          <t>1.45</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>2.91</t>
-        </is>
-      </c>
-      <c r="F18" t="n">
-        <v>10</v>
+          <t>81.16</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>5.06</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0734</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="19">
@@ -968,25 +1148,35 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>007750</t>
+          <t>090016</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>广发优势增长股票</t>
+          <t>大成消费主题混合</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>94.37</t>
+          <t>1.50</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>5.19</t>
-        </is>
-      </c>
-      <c r="F19" t="n">
+          <t>87.86</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>4.67</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0700</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
         <v>8</v>
       </c>
     </row>
@@ -996,26 +1186,36 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>002383</t>
+          <t>007142</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>大成趋势回报灵活配置混合</t>
+          <t>嘉合稳健增长灵活配置混合C</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>28.77</t>
+          <t>0.96</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>3.09</t>
-        </is>
-      </c>
-      <c r="F20" t="n">
-        <v>1</v>
+          <t>81.16</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>5.06</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0486</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="21">
@@ -1024,26 +1224,36 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>003147</t>
+          <t>160323</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>大成动态量化配置策略混合</t>
+          <t>华夏磐泰混合（LOF）</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>27.92</t>
+          <t>3.73</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>2.25</t>
-        </is>
-      </c>
-      <c r="F21" t="n">
-        <v>1</v>
+          <t>23.48</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>1.22</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0455</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="22">
@@ -1052,26 +1262,36 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>003373</t>
+          <t>009077</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>大成景禄灵活配置混合A</t>
+          <t>红土创新稳进混合A</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>28.93</t>
+          <t>3.96</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>3.15</t>
-        </is>
-      </c>
-      <c r="F22" t="n">
-        <v>1</v>
+          <t>33.47</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>0.89</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0352</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="23">
@@ -1080,26 +1300,36 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>003374</t>
+          <t>519646</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>大成景禄灵活配置混合C</t>
+          <t>银河鑫利灵活配置混合 - I</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>28.93</t>
+          <t>5.07</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>3.15</t>
-        </is>
-      </c>
-      <c r="F23" t="n">
-        <v>1</v>
+          <t>30.86</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>0.68</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0345</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="24">
@@ -1108,26 +1338,36 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>160323</t>
+          <t>519652</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>华夏磐泰混合（LOF）</t>
+          <t>银河鑫利灵活配置混合 - A</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>23.48</t>
+          <t>5.07</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>1.22</t>
-        </is>
-      </c>
-      <c r="F24" t="n">
-        <v>4</v>
+          <t>30.86</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>0.68</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.0345</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="25">
@@ -1136,25 +1376,35 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>007141</t>
+          <t>009078</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>嘉合稳健增长灵活配置混合A</t>
+          <t>红土创新稳进混合C</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>81.16</t>
+          <t>3.49</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>5.06</t>
-        </is>
-      </c>
-      <c r="F25" t="n">
+          <t>33.47</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>0.89</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.0311</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
         <v>9</v>
       </c>
     </row>
@@ -1164,26 +1414,36 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>007142</t>
+          <t>001537</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>嘉合稳健增长灵活配置混合C</t>
+          <t>中加改革红利灵活配置混合</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>81.16</t>
+          <t>0.73</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>5.06</t>
-        </is>
-      </c>
-      <c r="F26" t="n">
-        <v>9</v>
+          <t>92.15</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>3.91</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.0285</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="27">
@@ -1192,25 +1452,35 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>519646</t>
+          <t>007281</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>银河鑫利灵活配置混合 - I</t>
+          <t>嘉合消费升级混合</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>30.86</t>
+          <t>0.29</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>0.68</t>
-        </is>
-      </c>
-      <c r="F27" t="n">
+          <t>87.02</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>5.87</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.0170</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
         <v>9</v>
       </c>
     </row>
@@ -1220,26 +1490,36 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>519652</t>
+          <t>010037</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>银河鑫利灵活配置混合 - A</t>
+          <t>华泰柏瑞价值增长混合C</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>30.86</t>
+          <t>0.09</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>0.68</t>
-        </is>
-      </c>
-      <c r="F28" t="n">
-        <v>9</v>
+          <t>93.41</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>8.17</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.0074</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="29">
@@ -1248,26 +1528,36 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>519653</t>
+          <t>001574</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>银河鑫利灵活配置混合 - C</t>
+          <t>中海混改红利主题精选灵活配置混合</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>30.86</t>
+          <t>0.18</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>0.68</t>
-        </is>
-      </c>
-      <c r="F29" t="n">
-        <v>9</v>
+          <t>90.87</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>3.57</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.0064</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="30">
@@ -1276,26 +1566,36 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>008528</t>
+          <t>519653</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>华泰柏瑞质量成长混合</t>
+          <t>银河鑫利灵活配置混合 - C</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>94.82</t>
+          <t>0.73</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>7.23</t>
-        </is>
-      </c>
-      <c r="F30" t="n">
-        <v>3</v>
+          <t>30.86</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>0.68</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.0050</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>9</v>
       </c>
     </row>
   </sheetData>
@@ -1309,7 +1609,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1330,15 +1630,25 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
           <t>股票总仓位</t>
         </is>
       </c>
-      <c r="E1" s="2" t="inlineStr">
+      <c r="F1" s="2" t="inlineStr">
         <is>
           <t>仓位占比</t>
         </is>
       </c>
-      <c r="F1" s="2" t="inlineStr">
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
         <is>
           <t>仓位排名</t>
         </is>
@@ -1350,26 +1660,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>160323</t>
+          <t>161040</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>华夏磐泰混合（LOF）</t>
+          <t>富国创业板两年定期开放混合</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>29.87</t>
+          <t>33.25</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>1.05</t>
-        </is>
-      </c>
-      <c r="F2" t="n">
-        <v>4</v>
+          <t>76.09</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>5.39</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.7922</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="3">
@@ -1378,26 +1698,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>253010</t>
+          <t>160323</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>国联安安心成长混合</t>
+          <t>华夏磐泰混合（LOF）</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>24.87</t>
+          <t>4.91</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>0.54</t>
-        </is>
-      </c>
-      <c r="F3" t="n">
-        <v>10</v>
+          <t>29.87</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>1.05</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0516</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="4">
@@ -1406,26 +1736,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>161040</t>
+          <t>003064</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>富国创业板两年定期开放混合</t>
+          <t>南方荣欢定期开放混合</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>76.09</t>
+          <t>0.12</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>5.39</t>
-        </is>
-      </c>
-      <c r="F4" t="n">
-        <v>2</v>
+          <t>26.63</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2.39</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0029</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="5">
@@ -1434,26 +1774,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>003064</t>
+          <t>253010</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>南方荣欢定期开放混合</t>
+          <t>国联安安心成长混合</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>26.63</t>
+          <t>0.35</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>2.39</t>
-        </is>
-      </c>
-      <c r="F5" t="n">
-        <v>3</v>
+          <t>24.87</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>0.54</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0019</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="6">
@@ -1472,15 +1822,25 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
+          <t>4.85</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
           <t>21.92</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
+      <c r="F6" t="inlineStr">
         <is>
           <t>0.03</t>
         </is>
       </c>
-      <c r="F6" t="n">
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0015</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
         <v>9</v>
       </c>
     </row>
@@ -1500,15 +1860,25 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
+          <t>0.90</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
           <t>21.92</t>
         </is>
       </c>
-      <c r="E7" t="inlineStr">
+      <c r="F7" t="inlineStr">
         <is>
           <t>0.03</t>
         </is>
       </c>
-      <c r="F7" t="n">
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0003</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
         <v>9</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/创业板/300999-金龙鱼.xlsx
+++ b/数据整理/stocks/A股/创业板/300999-金龙鱼.xlsx
@@ -8,6 +8,7 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1885,4 +1886,478 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H12"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>161040</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>富国创业板两年定期开放混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>40.21</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>91.27</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>5.74</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>2.3081</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>003373</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>大成景禄灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>7.61</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>25.01</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>1.34</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.1020</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>002383</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>大成趋势回报灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>7.52</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>24.83</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>1.13</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0850</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>001364</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>大成景润灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>5.90</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>27.22</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>1.44</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0850</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>003374</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>大成景禄灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>3.43</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>25.01</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>1.34</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0460</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>008061</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>惠升惠新灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>1.10</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>74.36</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>3.60</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0396</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>516550</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>嘉实中证大农业ETF</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>0.65</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>99.02</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>2.99</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0194</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>008062</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>惠升惠新灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>0.31</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>74.36</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>3.60</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0112</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>004833</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>先锋聚利灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>0.07</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>41.70</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>3.04</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0021</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>004834</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>先锋聚利灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>41.70</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>3.04</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0006</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>006195</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>国金量化多因子股票</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>85.58</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>1.05</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0002</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/创业板/300999-金龙鱼.xlsx
+++ b/数据整理/stocks/A股/创业板/300999-金龙鱼.xlsx
@@ -9,6 +9,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -2360,4 +2361,136 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>161040</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>富国创业板两年定期开放混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>42.33</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>77.66</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.69</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.9853</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>516550</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>嘉实中证大农业ETF</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>1.09</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>99.03</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2.66</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0290</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/创业板/300999-金龙鱼.xlsx
+++ b/数据整理/stocks/A股/创业板/300999-金龙鱼.xlsx
@@ -10,6 +10,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -2493,4 +2494,104 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>2</v>
+      </c>
+      <c r="D2" t="n">
+        <v>2.01</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>11</v>
+      </c>
+      <c r="D3" t="n">
+        <v>2.7</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>6</v>
+      </c>
+      <c r="D4" t="n">
+        <v>1.85</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>29</v>
+      </c>
+      <c r="D5" t="n">
+        <v>9.619999999999999</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/创业板/300999-金龙鱼.xlsx
+++ b/数据整理/stocks/A股/创业板/300999-金龙鱼.xlsx
@@ -10,7 +10,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -2502,7 +2503,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2513,17 +2514,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>持有市值</t>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -2533,14 +2554,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>2</v>
-      </c>
-      <c r="D2" t="n">
-        <v>2.01</v>
+          <t>160222</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>国泰国证食品饮料行业指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>72.00</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>93.79</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>1.64</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.1808</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="3">
@@ -2549,14 +2592,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>11</v>
-      </c>
-      <c r="D3" t="n">
-        <v>2.7</v>
+          <t>003373</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>大成景禄灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>8.00</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>23.62</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>1.42</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.1136</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="4">
@@ -2565,14 +2630,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>6</v>
-      </c>
-      <c r="D4" t="n">
-        <v>1.85</v>
+          <t>003147</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>大成动态量化配置策略混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>5.61</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>26.89</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>1.51</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0847</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="5">
@@ -2581,13 +2668,265 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
+          <t>001364</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>大成景润灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>5.07</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>26.45</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>1.36</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0690</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>002383</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>大成趋势回报灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>4.64</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>27.74</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>1.47</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0682</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>003374</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>大成景禄灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>4.33</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>23.62</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>1.42</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0615</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>161718</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>招商沪深300高贝塔指数</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>0.20</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>94.85</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>1.39</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0028</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>7</v>
+      </c>
+      <c r="D2" t="n">
+        <v>1.58</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>2</v>
+      </c>
+      <c r="D3" t="n">
+        <v>2.01</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>11</v>
+      </c>
+      <c r="D4" t="n">
+        <v>2.7</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>6</v>
+      </c>
+      <c r="D5" t="n">
+        <v>1.85</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C5" t="n">
+      <c r="C6" t="n">
         <v>29</v>
       </c>
-      <c r="D5" t="n">
+      <c r="D6" t="n">
         <v>9.619999999999999</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/创业板/300999-金龙鱼.xlsx
+++ b/数据整理/stocks/A股/创业板/300999-金龙鱼.xlsx
@@ -11,7 +11,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -2825,7 +2826,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2836,17 +2837,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -2856,14 +2877,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>7</v>
-      </c>
-      <c r="D2" t="n">
-        <v>1.58</v>
+          <t>160222</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>国泰国证食品饮料行业指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>57.34</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>92.33</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>1.62</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.9289</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="3">
@@ -2872,14 +2915,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>2</v>
-      </c>
-      <c r="D3" t="n">
-        <v>2.01</v>
+          <t>160323</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>华夏磐泰混合（LOF）</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>11.45</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>29.52</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>0.56</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0641</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="4">
@@ -2888,14 +2953,120 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>161718</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>招商沪深300高贝塔指数</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>0.20</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>94.52</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>1.37</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0027</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>3</v>
+      </c>
+      <c r="D2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>7</v>
+      </c>
+      <c r="D3" t="n">
+        <v>1.58</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="D4" t="n">
-        <v>2.7</v>
+        <v>2.01</v>
       </c>
     </row>
     <row r="5">
@@ -2904,14 +3075,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="D5" t="n">
-        <v>1.85</v>
+        <v>2.7</v>
       </c>
     </row>
     <row r="6">
@@ -2920,13 +3091,29 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>6</v>
+      </c>
+      <c r="D6" t="n">
+        <v>1.85</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C6" t="n">
+      <c r="C7" t="n">
         <v>29</v>
       </c>
-      <c r="D6" t="n">
+      <c r="D7" t="n">
         <v>9.619999999999999</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/创业板/300999-金龙鱼.xlsx
+++ b/数据整理/stocks/A股/创业板/300999-金龙鱼.xlsx
@@ -12,7 +12,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="8" state="visible" r:id="rId8"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -2996,7 +2997,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:H12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3007,17 +3008,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -3027,14 +3048,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
+          <t>590002</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>中邮核心成长混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>44.75</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>78.15</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.02</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.3514</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
         <v>3</v>
-      </c>
-      <c r="D2" t="n">
-        <v>1</v>
       </c>
     </row>
     <row r="3">
@@ -3043,14 +3086,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>7</v>
-      </c>
-      <c r="D3" t="n">
-        <v>1.58</v>
+          <t>590001</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>中邮核心优选混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>16.41</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>86.18</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.94</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.8107</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="4">
@@ -3059,14 +3124,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>2</v>
-      </c>
-      <c r="D4" t="n">
-        <v>2.01</v>
+          <t>590005</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>中邮核心主题混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>6.88</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>92.02</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.95</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.3406</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="5">
@@ -3075,14 +3162,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>11</v>
-      </c>
-      <c r="D5" t="n">
-        <v>2.7</v>
+          <t>160323</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>华夏磐泰混合（LOF）</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>7.01</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>29.60</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>0.63</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0442</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="6">
@@ -3091,14 +3200,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>6</v>
-      </c>
-      <c r="D6" t="n">
-        <v>1.85</v>
+          <t>003513</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>中邮消费升级灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>0.64</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>91.41</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>5.06</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0324</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="7">
@@ -3107,13 +3238,373 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
+          <t>001364</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>大成景润灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>2.61</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>26.63</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>1.22</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0318</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>013360</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>华夏磐泰混合（LOF）C</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>3.98</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>29.60</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>0.63</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0251</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>002224</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>中邮绝对收益策略定期开放混合</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>1.24</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>62.36</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>1.75</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0217</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>003373</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>大成景禄灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>1.53</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>25.72</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>1.21</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0185</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>003147</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>大成动态量化配置策略混合</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>0.79</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>26.57</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>1.23</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0097</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>003374</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>大成景禄灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>0.12</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>25.72</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>1.21</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0015</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q2</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>11</v>
+      </c>
+      <c r="D2" t="n">
+        <v>2.69</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>3</v>
+      </c>
+      <c r="D3" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>7</v>
+      </c>
+      <c r="D4" t="n">
+        <v>1.58</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>2</v>
+      </c>
+      <c r="D5" t="n">
+        <v>2.01</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>11</v>
+      </c>
+      <c r="D6" t="n">
+        <v>2.7</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>6</v>
+      </c>
+      <c r="D7" t="n">
+        <v>1.85</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C7" t="n">
+      <c r="C8" t="n">
         <v>29</v>
       </c>
-      <c r="D7" t="n">
+      <c r="D8" t="n">
         <v>9.619999999999999</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/创业板/300999-金龙鱼.xlsx
+++ b/数据整理/stocks/A股/创业板/300999-金龙鱼.xlsx
@@ -7,13 +7,14 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="9" state="visible" r:id="rId9"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -457,7 +458,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -488,14 +489,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="D2" t="n">
-        <v>2.69</v>
+        <v>0.52</v>
       </c>
     </row>
     <row r="3">
@@ -504,14 +505,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="D3" t="n">
-        <v>1</v>
+        <v>2.69</v>
       </c>
     </row>
     <row r="4">
@@ -520,14 +521,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="D4" t="n">
-        <v>1.58</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5">
@@ -536,14 +537,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="D5" t="n">
-        <v>2.01</v>
+        <v>1.58</v>
       </c>
     </row>
     <row r="6">
@@ -552,14 +553,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="D6" t="n">
-        <v>2.7</v>
+        <v>2.01</v>
       </c>
     </row>
     <row r="7">
@@ -568,14 +569,14 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="D7" t="n">
-        <v>1.85</v>
+        <v>2.7</v>
       </c>
     </row>
     <row r="8">
@@ -584,13 +585,29 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>6</v>
+      </c>
+      <c r="D8" t="n">
+        <v>1.85</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C8" t="n">
+      <c r="C9" t="n">
         <v>29</v>
       </c>
-      <c r="D8" t="n">
+      <c r="D9" t="n">
         <v>9.619999999999999</v>
       </c>
     </row>
@@ -600,6 +617,326 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>090016</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>大成消费主题混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>3.59</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>90.85</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>5.86</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.2104</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>001195</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>工银农业产业股票</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>5.53</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>80.67</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.32</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.1836</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>002319</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>大成一带一路灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>1.26</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>89.65</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.26</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0537</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>160323</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>华夏磐泰混合（LOF）A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>6.20</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>28.65</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>0.56</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0347</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>013360</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>华夏磐泰混合（LOF）C</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>3.70</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>28.65</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>0.56</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0207</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>161038</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>富国新兴成长量化精选混合（LOF）A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>0.81</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>91.98</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>1.60</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0130</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>014171</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>富国新兴成长量化精选混合（LOF）C</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>91.98</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>1.60</t>
+        </is>
+      </c>
+      <c r="G8" t="n">
+        <v>0</v>
+      </c>
+      <c r="H8" t="n">
+        <v>4</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1073,7 +1410,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1243,7 +1580,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1565,7 +1902,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1697,7 +2034,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2171,7 +2508,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2455,7 +2792,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>

--- a/数据整理/stocks/A股/创业板/300999-金龙鱼.xlsx
+++ b/数据整理/stocks/A股/创业板/300999-金龙鱼.xlsx
@@ -7,14 +7,15 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="8" state="visible" r:id="rId8"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q4" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="10" state="visible" r:id="rId10"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -458,7 +459,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D9"/>
+  <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -489,14 +490,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q3</t>
+          <t>2022-Q4</t>
         </is>
       </c>
       <c r="C2" t="n">
         <v>7</v>
       </c>
       <c r="D2" t="n">
-        <v>0.52</v>
+        <v>2.79</v>
       </c>
     </row>
     <row r="3">
@@ -505,14 +506,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="D3" t="n">
-        <v>2.69</v>
+        <v>0.52</v>
       </c>
     </row>
     <row r="4">
@@ -521,14 +522,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="D4" t="n">
-        <v>1</v>
+        <v>2.69</v>
       </c>
     </row>
     <row r="5">
@@ -537,14 +538,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="D5" t="n">
-        <v>1.58</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6">
@@ -553,14 +554,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="D6" t="n">
-        <v>2.01</v>
+        <v>1.58</v>
       </c>
     </row>
     <row r="7">
@@ -569,14 +570,14 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="D7" t="n">
-        <v>2.7</v>
+        <v>2.01</v>
       </c>
     </row>
     <row r="8">
@@ -585,14 +586,14 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="D8" t="n">
-        <v>1.85</v>
+        <v>2.7</v>
       </c>
     </row>
     <row r="9">
@@ -601,18 +602,1192 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C9" t="n">
+        <v>6</v>
+      </c>
+      <c r="D9" t="n">
+        <v>1.85</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C9" t="n">
+      <c r="C10" t="n">
         <v>29</v>
       </c>
-      <c r="D9" t="n">
+      <c r="D10" t="n">
         <v>9.619999999999999</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H30"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>161040</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>富国创业板两年定期开放混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>33.86</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>63.23</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>7.53</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>2.5497</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>460005</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>华泰柏瑞价值增长混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>29.09</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>93.41</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>8.17</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>2.3767</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>008528</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>华泰柏瑞质量成长混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>14.74</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>94.82</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>7.23</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>1.0657</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>007750</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>广发优势增长股票</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>9.61</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>94.37</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>5.19</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.4988</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>001069</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>华泰柏瑞消费成长灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>5.73</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>94.68</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>8.48</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.4859</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>519019</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>大成景阳领先混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>9.12</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>92.51</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>4.62</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.4213</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>001579</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>国泰大农业股票</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>12.57</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>91.27</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>2.91</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.3658</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>003373</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>大成景禄灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>7.33</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>28.93</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>3.15</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.2309</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>002383</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>大成趋势回报灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>7.26</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>28.77</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>3.09</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.2243</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>001364</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>大成景润灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>5.97</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>27.86</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>3.74</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.2233</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>398011</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>中海分红增利混合</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>5.19</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>91.19</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>3.59</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.1863</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>006425</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>嘉合锦程价值精选混合C</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>2.75</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>90.28</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>6.60</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.1815</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>006424</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>嘉合锦程价值精选混合A</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>2.00</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>90.28</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>6.60</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.1320</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>003374</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>大成景禄灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>2.79</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>28.93</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>3.15</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0879</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>519150</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>新华优选消费混合</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>1.89</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>95.26</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>4.10</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0775</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>003147</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>大成动态量化配置策略混合</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>3.38</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>27.92</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>2.25</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0760</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>007141</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>嘉合稳健增长灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>1.45</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>81.16</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>5.06</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0734</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>090016</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>大成消费主题混合</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>1.50</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>87.86</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>4.67</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0700</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>007142</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>嘉合稳健增长灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>0.96</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>81.16</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>5.06</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0486</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>160323</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>华夏磐泰混合（LOF）</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>3.73</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>23.48</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>1.22</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0455</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>009077</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>红土创新稳进混合A</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>3.96</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>33.47</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>0.89</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0352</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>519646</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>银河鑫利灵活配置混合 - I</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>5.07</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>30.86</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>0.68</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0345</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>519652</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>银河鑫利灵活配置混合 - A</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>5.07</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>30.86</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>0.68</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.0345</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>009078</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>红土创新稳进混合C</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>3.49</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>33.47</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>0.89</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.0311</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>001537</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>中加改革红利灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>0.73</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>92.15</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>3.91</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.0285</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="1" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>007281</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>嘉合消费升级混合</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>0.29</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>87.02</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>5.87</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.0170</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="1" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>010037</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>华泰柏瑞价值增长混合C</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>0.09</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>93.41</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>8.17</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.0074</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="1" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>001574</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>中海混改红利主题精选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>0.18</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>90.87</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>3.57</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.0064</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="1" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>519653</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>银河鑫利灵活配置混合 - C</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>0.73</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>30.86</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>0.68</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.0050</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
@@ -673,36 +1848,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>090016</t>
+          <t>519019</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>大成消费主题混合</t>
+          <t>大成景阳领先混合</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>3.59</t>
+          <t>20.42</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>90.85</t>
+          <t>90.28</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>5.86</t>
+          <t>3.70</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.2104</t>
+          <t>0.7555</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>4</v>
+        <v>10</v>
       </c>
     </row>
     <row r="3">
@@ -711,36 +1886,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>001195</t>
+          <t>160926</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>工银农业产业股票</t>
+          <t>大成创业板两年定期开放混合A</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>5.53</t>
+          <t>7.36</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>80.67</t>
+          <t>80.56</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>3.32</t>
+          <t>8.66</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.1836</t>
+          <t>0.6374</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4">
@@ -749,32 +1924,32 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>002319</t>
+          <t>090003</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>大成一带一路灵活配置混合</t>
+          <t>大成蓝筹稳健混合</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>1.26</t>
+          <t>12.65</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>89.65</t>
+          <t>93.33</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>4.26</t>
+          <t>4.21</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.0537</t>
+          <t>0.5326</t>
         </is>
       </c>
       <c r="H4" t="n">
@@ -787,36 +1962,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>160323</t>
+          <t>009798</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>华夏磐泰混合（LOF）A</t>
+          <t>大成创业板两年定期开放混合C</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>6.20</t>
+          <t>2.60</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>28.65</t>
+          <t>80.56</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>0.56</t>
+          <t>8.66</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>0.0347</t>
+          <t>0.2252</t>
         </is>
       </c>
       <c r="H5" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6">
@@ -825,36 +2000,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>013360</t>
+          <t>090016</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>华夏磐泰混合（LOF）C</t>
+          <t>大成消费主题混合</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>3.70</t>
+          <t>5.72</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>28.65</t>
+          <t>91.78</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>0.56</t>
+          <t>3.83</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>0.0207</t>
+          <t>0.2191</t>
         </is>
       </c>
       <c r="H6" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="7">
@@ -863,36 +2038,36 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>161038</t>
+          <t>001195</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>富国新兴成长量化精选混合（LOF）A</t>
+          <t>工银农业产业股票</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>0.81</t>
+          <t>5.53</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>91.98</t>
+          <t>83.05</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>1.60</t>
+          <t>3.94</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>0.0130</t>
+          <t>0.2179</t>
         </is>
       </c>
       <c r="H7" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="8">
@@ -901,34 +2076,36 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>014171</t>
+          <t>005076</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>富国新兴成长量化精选混合（LOF）C</t>
+          <t>创金合信优选回报灵活配置混合</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>0.00</t>
+          <t>2.57</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>91.98</t>
+          <t>92.94</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>1.60</t>
-        </is>
-      </c>
-      <c r="G8" t="n">
-        <v>0</v>
+          <t>8.01</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.2059</t>
+        </is>
       </c>
       <c r="H8" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
   </sheetData>
@@ -937,6 +2114,326 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>090016</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>大成消费主题混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>3.59</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>90.85</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>5.86</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.2104</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>001195</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>工银农业产业股票</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>5.53</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>80.67</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.32</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.1836</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>002319</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>大成一带一路灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>1.26</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>89.65</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.26</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0537</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>160323</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>华夏磐泰混合（LOF）A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>6.20</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>28.65</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>0.56</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0347</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>013360</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>华夏磐泰混合（LOF）C</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>3.70</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>28.65</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>0.56</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0207</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>161038</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>富国新兴成长量化精选混合（LOF）A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>0.81</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>91.98</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>1.60</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0130</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>014171</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>富国新兴成长量化精选混合（LOF）C</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>91.98</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>1.60</t>
+        </is>
+      </c>
+      <c r="G8" t="n">
+        <v>0</v>
+      </c>
+      <c r="H8" t="n">
+        <v>4</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1410,7 +2907,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1580,7 +3077,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1902,7 +3399,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2034,7 +3531,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2508,7 +4005,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2790,1162 +4287,4 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:H30"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>基金代码</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>基金名称</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>基金金额</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>股票总仓位</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>仓位占比</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>持有市值(亿元)</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>仓位排名</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>161040</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>富国创业板两年定期开放混合</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>33.86</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>63.23</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>7.53</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>2.5497</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>460005</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>华泰柏瑞价值增长混合A</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>29.09</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>93.41</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>8.17</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>2.3767</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>008528</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>华泰柏瑞质量成长混合</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>14.74</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>94.82</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>7.23</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>1.0657</t>
-        </is>
-      </c>
-      <c r="H4" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>007750</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>广发优势增长股票</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>9.61</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>94.37</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>5.19</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>0.4988</t>
-        </is>
-      </c>
-      <c r="H5" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>001069</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>华泰柏瑞消费成长灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>5.73</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>94.68</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>8.48</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>0.4859</t>
-        </is>
-      </c>
-      <c r="H6" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>519019</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>大成景阳领先混合</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>9.12</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>92.51</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>4.62</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>0.4213</t>
-        </is>
-      </c>
-      <c r="H7" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>001579</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>国泰大农业股票</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>12.57</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>91.27</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>2.91</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>0.3658</t>
-        </is>
-      </c>
-      <c r="H8" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="1" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>003373</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>大成景禄灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>7.33</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>28.93</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>3.15</t>
-        </is>
-      </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>0.2309</t>
-        </is>
-      </c>
-      <c r="H9" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="1" t="n">
-        <v>8</v>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>002383</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>大成趋势回报灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>7.26</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>28.77</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>3.09</t>
-        </is>
-      </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>0.2243</t>
-        </is>
-      </c>
-      <c r="H10" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="1" t="n">
-        <v>9</v>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>001364</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>大成景润灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>5.97</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>27.86</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>3.74</t>
-        </is>
-      </c>
-      <c r="G11" t="inlineStr">
-        <is>
-          <t>0.2233</t>
-        </is>
-      </c>
-      <c r="H11" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="1" t="n">
-        <v>10</v>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>398011</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>中海分红增利混合</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>5.19</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>91.19</t>
-        </is>
-      </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>3.59</t>
-        </is>
-      </c>
-      <c r="G12" t="inlineStr">
-        <is>
-          <t>0.1863</t>
-        </is>
-      </c>
-      <c r="H12" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="1" t="n">
-        <v>11</v>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>006425</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>嘉合锦程价值精选混合C</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>2.75</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>90.28</t>
-        </is>
-      </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>6.60</t>
-        </is>
-      </c>
-      <c r="G13" t="inlineStr">
-        <is>
-          <t>0.1815</t>
-        </is>
-      </c>
-      <c r="H13" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="1" t="n">
-        <v>12</v>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>006424</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>嘉合锦程价值精选混合A</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>2.00</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>90.28</t>
-        </is>
-      </c>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>6.60</t>
-        </is>
-      </c>
-      <c r="G14" t="inlineStr">
-        <is>
-          <t>0.1320</t>
-        </is>
-      </c>
-      <c r="H14" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="1" t="n">
-        <v>13</v>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>003374</t>
-        </is>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>大成景禄灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>2.79</t>
-        </is>
-      </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>28.93</t>
-        </is>
-      </c>
-      <c r="F15" t="inlineStr">
-        <is>
-          <t>3.15</t>
-        </is>
-      </c>
-      <c r="G15" t="inlineStr">
-        <is>
-          <t>0.0879</t>
-        </is>
-      </c>
-      <c r="H15" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="1" t="n">
-        <v>14</v>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>519150</t>
-        </is>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>新华优选消费混合</t>
-        </is>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>1.89</t>
-        </is>
-      </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>95.26</t>
-        </is>
-      </c>
-      <c r="F16" t="inlineStr">
-        <is>
-          <t>4.10</t>
-        </is>
-      </c>
-      <c r="G16" t="inlineStr">
-        <is>
-          <t>0.0775</t>
-        </is>
-      </c>
-      <c r="H16" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="1" t="n">
-        <v>15</v>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>003147</t>
-        </is>
-      </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>大成动态量化配置策略混合</t>
-        </is>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>3.38</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>27.92</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>2.25</t>
-        </is>
-      </c>
-      <c r="G17" t="inlineStr">
-        <is>
-          <t>0.0760</t>
-        </is>
-      </c>
-      <c r="H17" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="1" t="n">
-        <v>16</v>
-      </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>007141</t>
-        </is>
-      </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>嘉合稳健增长灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D18" t="inlineStr">
-        <is>
-          <t>1.45</t>
-        </is>
-      </c>
-      <c r="E18" t="inlineStr">
-        <is>
-          <t>81.16</t>
-        </is>
-      </c>
-      <c r="F18" t="inlineStr">
-        <is>
-          <t>5.06</t>
-        </is>
-      </c>
-      <c r="G18" t="inlineStr">
-        <is>
-          <t>0.0734</t>
-        </is>
-      </c>
-      <c r="H18" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="1" t="n">
-        <v>17</v>
-      </c>
-      <c r="B19" t="inlineStr">
-        <is>
-          <t>090016</t>
-        </is>
-      </c>
-      <c r="C19" t="inlineStr">
-        <is>
-          <t>大成消费主题混合</t>
-        </is>
-      </c>
-      <c r="D19" t="inlineStr">
-        <is>
-          <t>1.50</t>
-        </is>
-      </c>
-      <c r="E19" t="inlineStr">
-        <is>
-          <t>87.86</t>
-        </is>
-      </c>
-      <c r="F19" t="inlineStr">
-        <is>
-          <t>4.67</t>
-        </is>
-      </c>
-      <c r="G19" t="inlineStr">
-        <is>
-          <t>0.0700</t>
-        </is>
-      </c>
-      <c r="H19" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="1" t="n">
-        <v>18</v>
-      </c>
-      <c r="B20" t="inlineStr">
-        <is>
-          <t>007142</t>
-        </is>
-      </c>
-      <c r="C20" t="inlineStr">
-        <is>
-          <t>嘉合稳健增长灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D20" t="inlineStr">
-        <is>
-          <t>0.96</t>
-        </is>
-      </c>
-      <c r="E20" t="inlineStr">
-        <is>
-          <t>81.16</t>
-        </is>
-      </c>
-      <c r="F20" t="inlineStr">
-        <is>
-          <t>5.06</t>
-        </is>
-      </c>
-      <c r="G20" t="inlineStr">
-        <is>
-          <t>0.0486</t>
-        </is>
-      </c>
-      <c r="H20" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="1" t="n">
-        <v>19</v>
-      </c>
-      <c r="B21" t="inlineStr">
-        <is>
-          <t>160323</t>
-        </is>
-      </c>
-      <c r="C21" t="inlineStr">
-        <is>
-          <t>华夏磐泰混合（LOF）</t>
-        </is>
-      </c>
-      <c r="D21" t="inlineStr">
-        <is>
-          <t>3.73</t>
-        </is>
-      </c>
-      <c r="E21" t="inlineStr">
-        <is>
-          <t>23.48</t>
-        </is>
-      </c>
-      <c r="F21" t="inlineStr">
-        <is>
-          <t>1.22</t>
-        </is>
-      </c>
-      <c r="G21" t="inlineStr">
-        <is>
-          <t>0.0455</t>
-        </is>
-      </c>
-      <c r="H21" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" s="1" t="n">
-        <v>20</v>
-      </c>
-      <c r="B22" t="inlineStr">
-        <is>
-          <t>009077</t>
-        </is>
-      </c>
-      <c r="C22" t="inlineStr">
-        <is>
-          <t>红土创新稳进混合A</t>
-        </is>
-      </c>
-      <c r="D22" t="inlineStr">
-        <is>
-          <t>3.96</t>
-        </is>
-      </c>
-      <c r="E22" t="inlineStr">
-        <is>
-          <t>33.47</t>
-        </is>
-      </c>
-      <c r="F22" t="inlineStr">
-        <is>
-          <t>0.89</t>
-        </is>
-      </c>
-      <c r="G22" t="inlineStr">
-        <is>
-          <t>0.0352</t>
-        </is>
-      </c>
-      <c r="H22" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" s="1" t="n">
-        <v>21</v>
-      </c>
-      <c r="B23" t="inlineStr">
-        <is>
-          <t>519646</t>
-        </is>
-      </c>
-      <c r="C23" t="inlineStr">
-        <is>
-          <t>银河鑫利灵活配置混合 - I</t>
-        </is>
-      </c>
-      <c r="D23" t="inlineStr">
-        <is>
-          <t>5.07</t>
-        </is>
-      </c>
-      <c r="E23" t="inlineStr">
-        <is>
-          <t>30.86</t>
-        </is>
-      </c>
-      <c r="F23" t="inlineStr">
-        <is>
-          <t>0.68</t>
-        </is>
-      </c>
-      <c r="G23" t="inlineStr">
-        <is>
-          <t>0.0345</t>
-        </is>
-      </c>
-      <c r="H23" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" s="1" t="n">
-        <v>22</v>
-      </c>
-      <c r="B24" t="inlineStr">
-        <is>
-          <t>519652</t>
-        </is>
-      </c>
-      <c r="C24" t="inlineStr">
-        <is>
-          <t>银河鑫利灵活配置混合 - A</t>
-        </is>
-      </c>
-      <c r="D24" t="inlineStr">
-        <is>
-          <t>5.07</t>
-        </is>
-      </c>
-      <c r="E24" t="inlineStr">
-        <is>
-          <t>30.86</t>
-        </is>
-      </c>
-      <c r="F24" t="inlineStr">
-        <is>
-          <t>0.68</t>
-        </is>
-      </c>
-      <c r="G24" t="inlineStr">
-        <is>
-          <t>0.0345</t>
-        </is>
-      </c>
-      <c r="H24" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" s="1" t="n">
-        <v>23</v>
-      </c>
-      <c r="B25" t="inlineStr">
-        <is>
-          <t>009078</t>
-        </is>
-      </c>
-      <c r="C25" t="inlineStr">
-        <is>
-          <t>红土创新稳进混合C</t>
-        </is>
-      </c>
-      <c r="D25" t="inlineStr">
-        <is>
-          <t>3.49</t>
-        </is>
-      </c>
-      <c r="E25" t="inlineStr">
-        <is>
-          <t>33.47</t>
-        </is>
-      </c>
-      <c r="F25" t="inlineStr">
-        <is>
-          <t>0.89</t>
-        </is>
-      </c>
-      <c r="G25" t="inlineStr">
-        <is>
-          <t>0.0311</t>
-        </is>
-      </c>
-      <c r="H25" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" s="1" t="n">
-        <v>24</v>
-      </c>
-      <c r="B26" t="inlineStr">
-        <is>
-          <t>001537</t>
-        </is>
-      </c>
-      <c r="C26" t="inlineStr">
-        <is>
-          <t>中加改革红利灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D26" t="inlineStr">
-        <is>
-          <t>0.73</t>
-        </is>
-      </c>
-      <c r="E26" t="inlineStr">
-        <is>
-          <t>92.15</t>
-        </is>
-      </c>
-      <c r="F26" t="inlineStr">
-        <is>
-          <t>3.91</t>
-        </is>
-      </c>
-      <c r="G26" t="inlineStr">
-        <is>
-          <t>0.0285</t>
-        </is>
-      </c>
-      <c r="H26" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" s="1" t="n">
-        <v>25</v>
-      </c>
-      <c r="B27" t="inlineStr">
-        <is>
-          <t>007281</t>
-        </is>
-      </c>
-      <c r="C27" t="inlineStr">
-        <is>
-          <t>嘉合消费升级混合</t>
-        </is>
-      </c>
-      <c r="D27" t="inlineStr">
-        <is>
-          <t>0.29</t>
-        </is>
-      </c>
-      <c r="E27" t="inlineStr">
-        <is>
-          <t>87.02</t>
-        </is>
-      </c>
-      <c r="F27" t="inlineStr">
-        <is>
-          <t>5.87</t>
-        </is>
-      </c>
-      <c r="G27" t="inlineStr">
-        <is>
-          <t>0.0170</t>
-        </is>
-      </c>
-      <c r="H27" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" s="1" t="n">
-        <v>26</v>
-      </c>
-      <c r="B28" t="inlineStr">
-        <is>
-          <t>010037</t>
-        </is>
-      </c>
-      <c r="C28" t="inlineStr">
-        <is>
-          <t>华泰柏瑞价值增长混合C</t>
-        </is>
-      </c>
-      <c r="D28" t="inlineStr">
-        <is>
-          <t>0.09</t>
-        </is>
-      </c>
-      <c r="E28" t="inlineStr">
-        <is>
-          <t>93.41</t>
-        </is>
-      </c>
-      <c r="F28" t="inlineStr">
-        <is>
-          <t>8.17</t>
-        </is>
-      </c>
-      <c r="G28" t="inlineStr">
-        <is>
-          <t>0.0074</t>
-        </is>
-      </c>
-      <c r="H28" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" s="1" t="n">
-        <v>27</v>
-      </c>
-      <c r="B29" t="inlineStr">
-        <is>
-          <t>001574</t>
-        </is>
-      </c>
-      <c r="C29" t="inlineStr">
-        <is>
-          <t>中海混改红利主题精选灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D29" t="inlineStr">
-        <is>
-          <t>0.18</t>
-        </is>
-      </c>
-      <c r="E29" t="inlineStr">
-        <is>
-          <t>90.87</t>
-        </is>
-      </c>
-      <c r="F29" t="inlineStr">
-        <is>
-          <t>3.57</t>
-        </is>
-      </c>
-      <c r="G29" t="inlineStr">
-        <is>
-          <t>0.0064</t>
-        </is>
-      </c>
-      <c r="H29" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" s="1" t="n">
-        <v>28</v>
-      </c>
-      <c r="B30" t="inlineStr">
-        <is>
-          <t>519653</t>
-        </is>
-      </c>
-      <c r="C30" t="inlineStr">
-        <is>
-          <t>银河鑫利灵活配置混合 - C</t>
-        </is>
-      </c>
-      <c r="D30" t="inlineStr">
-        <is>
-          <t>0.73</t>
-        </is>
-      </c>
-      <c r="E30" t="inlineStr">
-        <is>
-          <t>30.86</t>
-        </is>
-      </c>
-      <c r="F30" t="inlineStr">
-        <is>
-          <t>0.68</t>
-        </is>
-      </c>
-      <c r="G30" t="inlineStr">
-        <is>
-          <t>0.0050</t>
-        </is>
-      </c>
-      <c r="H30" t="n">
-        <v>9</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>